--- a/lab4/Графики.xlsx
+++ b/lab4/Графики.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\CLionProjects\parallel-programming\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2300657F-66EC-40E5-8B54-7D4E135858DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86A7B2-C348-4FA3-AA6A-06388BDFE951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{A4E00E8E-69BF-4A5F-B4FA-DC75E91D54CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{A4E00E8E-69BF-4A5F-B4FA-DC75E91D54CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,61 +187,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$17</c:f>
+              <c:f>Sheet1!$A$4:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -282,6 +408,132 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -332,61 +584,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$17</c:f>
+              <c:f>Sheet1!$D$4:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="45">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
+                <c:pt idx="46">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$17</c:f>
+              <c:f>Sheet1!$C$4:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -427,6 +805,132 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -477,61 +981,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$17</c:f>
+              <c:f>Sheet1!$F$4:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$17</c:f>
+              <c:f>Sheet1!$E$4:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -572,6 +1202,132 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -727,6 +1483,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -829,61 +1616,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$17</c:f>
+              <c:f>Sheet1!$I$4:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$17</c:f>
+              <c:f>Sheet1!$H$4:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -924,6 +1837,132 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -974,61 +2013,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$17</c:f>
+              <c:f>Sheet1!$K$4:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$17</c:f>
+              <c:f>Sheet1!$J$4:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1069,6 +2234,132 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1119,61 +2410,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$17</c:f>
+              <c:f>Sheet1!$M$4:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$17</c:f>
+              <c:f>Sheet1!$L$4:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1214,6 +2631,132 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,6 +2912,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1471,61 +3045,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$P$17</c:f>
+              <c:f>Sheet1!$P$4:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
+                <c:pt idx="55">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$O$17</c:f>
+              <c:f>Sheet1!$O$4:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1566,6 +3266,132 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1616,61 +3442,187 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$4:$R$17</c:f>
+              <c:f>Sheet1!$R$4:$R$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$17</c:f>
+              <c:f>Sheet1!$Q$4:$Q$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1711,6 +3663,132 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1761,61 +3839,127 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$T$4:$T$17</c:f>
+              <c:f>Sheet1!$T$24:$T$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$4:$S$17</c:f>
+              <c:f>Sheet1!$S$4:$S$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1856,6 +4000,132 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2011,6 +4281,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3727,15 +6028,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3763,15 +6064,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3799,15 +6100,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4153,18 +6454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB83C5-463B-4814-B40E-116D4E6ED971}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +6491,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +6529,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4284,788 +6585,3140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>21</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>21</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>21</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>21</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>21</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>21</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>21</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>21</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>20</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>21</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>21</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>21</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>21</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>21</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>21</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>21</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>21</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>33</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>21</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>21</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>21</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>21</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>49</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>41</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>21</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>21</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>45</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>21</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>21</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>78</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>52</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>45</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>21</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>21</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>21</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>21</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>69</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>48</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>51</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>21</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>78</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>71</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>52</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>22</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>21</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>89</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>79</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>22</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>71</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>63</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>22</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>21</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>85</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>22</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>75</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>77</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>22</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>21</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>85</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>83</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>78</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>22</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>21</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>88</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>86</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>85</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>22</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>21</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>77</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>96</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>27</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>86</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>85</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>23</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>21</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>125</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>77</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>110</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>52</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>94</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>92</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>24</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>21</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>129</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>117</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>52</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>94</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>93</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>135</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>128</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>53</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>95</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>111</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>24</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>22</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>139</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>89</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>131</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>53</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>117</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>122</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>26</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>23</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>142</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>101</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>132</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>55</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>126</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>127</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>26</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>23</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>107</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>144</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>55</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>146</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>129</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>28</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>25</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>173</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>127</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>177</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>56</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>222</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>215</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>30</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>25</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>175</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>129</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>180</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>58</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>233</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>233</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>36</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>33</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>191</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>137</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>213</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>60</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>236</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
         <v>242</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>13</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>13</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>13</v>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>53</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>35</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>192</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>201</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>233</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>60</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>13</v>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>242</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>242</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>54</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>240</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>117</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>77</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>156</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>49</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>203</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>13</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>26</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>13</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>119</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>13</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>13</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>13</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>14</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>13</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>13</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>54</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>12</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>77</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>13</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>12</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>12</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>16</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>77</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>12</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>15</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>13</v>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>242</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>256</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>309</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>72</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>266</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>329</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>61</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>926</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2193</v>
       </c>
     </row>
   </sheetData>
